--- a/pruebas/Caso_de_prueba_4_Consultar_pagina_principa.xlsx
+++ b/pruebas/Caso_de_prueba_4_Consultar_pagina_principa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\`\Desktop\MicroBlog\pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANDRES\Documents\GitHub\ingSoft2017\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Código</t>
   </si>
@@ -42,49 +42,70 @@
     <t>1- Ingresar a la pagina principal una vez ya identificado en el sistema.</t>
   </si>
   <si>
-    <t>Comprobar el funcionamiento de consultar amigos y temas del momento</t>
-  </si>
-  <si>
-    <t>Tablon de anuncios correctamente dibujado</t>
-  </si>
-  <si>
-    <t>Muestra lista de seguidores y temas del momento</t>
-  </si>
-  <si>
-    <t>Comprobar si está bien dibujada la interfaz de página principal</t>
-  </si>
-  <si>
     <t>Procedimiento de Prueba: Pagina Principal</t>
   </si>
   <si>
-    <t>2- Hacer click Tablon de Anuncios</t>
-  </si>
-  <si>
-    <t>3- Hacer click seguidores</t>
-  </si>
-  <si>
-    <t>Ingreso al sistema</t>
-  </si>
-  <si>
-    <t>Click en pagina principal</t>
-  </si>
-  <si>
-    <t>Dibujo correcto de pagina principal y sus complementos</t>
-  </si>
-  <si>
-    <t>Click en interfaces temas del momentos y seguidores</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
     <t>4.2</t>
+  </si>
+  <si>
+    <t>Comprobar si se cargan correctamente todos los componentes de la página principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- Estar situado en la pantalla de la página principal </t>
+  </si>
+  <si>
+    <t>3- Hacer click en seguidores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post inicio sesión </t>
+  </si>
+  <si>
+    <t>Usuario y contraseña correctos</t>
+  </si>
+  <si>
+    <t>Correcto funcionamiento y carga de la pagina principal acorde a lo especificado en el diseño</t>
+  </si>
+  <si>
+    <t>Procedimiento de prueba 4.1 correcto</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Comprobar el funcionamiento de consultar seguidores</t>
+  </si>
+  <si>
+    <t>Comprobar el funcionamiento de consultar a quien sigo</t>
+  </si>
+  <si>
+    <t>Comprobar el funcionamiento de consultar temas del momento</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Click en  temas del momento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra lista de seguidores </t>
+  </si>
+  <si>
+    <t>Muestra lista de personas a quienes sigo</t>
+  </si>
+  <si>
+    <t>Muestra lista temas del momento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -185,6 +206,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,26 +514,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
+    <col min="1" max="1" width="10.625"/>
     <col min="2" max="2" width="51"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="10.5703125"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -529,7 +553,7 @@
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -539,7 +563,7 @@
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -577,39 +601,75 @@
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
